--- a/matching/src/planilhas/telefonia-breakdown.xlsx
+++ b/matching/src/planilhas/telefonia-breakdown.xlsx
@@ -1,27 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="495" windowWidth="16995" windowHeight="8415"/>
+    <workbookView xWindow="3200" yWindow="200" windowWidth="23060" windowHeight="15260" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="Classificados" sheetId="1" r:id="rId1"/>
+    <sheet name="Não Classificados" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="telefonia_breakdown_1" localSheetId="0">Plan1!$A$1:$B$107</definedName>
-    <definedName name="telefonia_breakdown_2" localSheetId="0">Plan1!$E$1:$F$556</definedName>
+    <definedName name="breakdown_nc" localSheetId="1">'Não Classificados'!$A$1:$C$50</definedName>
+    <definedName name="telefonia_breakdown_1" localSheetId="0">Classificados!$A$1:$B$107</definedName>
+    <definedName name="telefonia_breakdown_2" localSheetId="0">Classificados!$E$1:$F$556</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="telefonia-breakdown" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="1" name="breakdown-nc.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:emadruga:salvini:desafio:matching:src:breakdown-nc.csv" tab="0" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="telefonia-breakdown" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr sourceFile="C:\Users\Ewerton\python\salvini\desafio\matching\src\planilhas\telefonia-breakdown.csv" decimal="," thousands=".">
       <textFields count="2">
         <textField/>
@@ -29,7 +44,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="telefonia-breakdown-1" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="3" name="telefonia-breakdown-1" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr sourceFile="C:\Users\Ewerton\python\salvini\desafio\matching\src\planilhas\telefonia-breakdown-1.csv" decimal="," thousands=".">
       <textFields count="2">
         <textField/>
@@ -41,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="679">
   <si>
     <t>Smartphone LG</t>
   </si>
@@ -2030,18 +2045,72 @@
   </si>
   <si>
     <t>AcessÃ³rio</t>
+  </si>
+  <si>
+    <t>CAPA</t>
+  </si>
+  <si>
+    <t>Chip</t>
+  </si>
+  <si>
+    <t>Vivo</t>
+  </si>
+  <si>
+    <t>TIMChip</t>
+  </si>
+  <si>
+    <t>TIM</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>Bolsa</t>
+  </si>
+  <si>
+    <t>Headset</t>
+  </si>
+  <si>
+    <t>Moto</t>
+  </si>
+  <si>
+    <t>Gradiente</t>
+  </si>
+  <si>
+    <t>Galaxy</t>
+  </si>
+  <si>
+    <t>TOUCH</t>
+  </si>
+  <si>
+    <t>SMARTPHONE</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>FONE</t>
+  </si>
+  <si>
+    <t>Placa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2065,8 +2134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2082,11 +2152,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="telefonia-breakdown_2" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="telefonia-breakdown-1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="telefonia-breakdown-1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="telefonia-breakdown_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="breakdown-nc" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2378,19 +2452,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F556"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1">
         <v>1026</v>
       </c>
@@ -2404,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>553</v>
       </c>
@@ -2418,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>397</v>
       </c>
@@ -2432,7 +2506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>369</v>
       </c>
@@ -2446,11 +2520,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>157</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>560</v>
       </c>
       <c r="E5">
@@ -2460,7 +2534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>148</v>
       </c>
@@ -2474,7 +2548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>146</v>
       </c>
@@ -2488,11 +2562,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>123</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>563</v>
       </c>
       <c r="E8">
@@ -2502,7 +2576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>108</v>
       </c>
@@ -2516,11 +2590,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>80</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>565</v>
       </c>
       <c r="E10">
@@ -2530,7 +2604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>73</v>
       </c>
@@ -2544,11 +2618,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>64</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>567</v>
       </c>
       <c r="E12">
@@ -2558,7 +2632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>59</v>
       </c>
@@ -2576,11 +2650,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>569</v>
       </c>
       <c r="E14">
@@ -2590,7 +2664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>47</v>
       </c>
@@ -2604,7 +2678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>38</v>
       </c>
@@ -2618,11 +2692,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>572</v>
       </c>
       <c r="E17">
@@ -2632,7 +2706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>34</v>
       </c>
@@ -2646,7 +2720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>26</v>
       </c>
@@ -2660,11 +2734,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>575</v>
       </c>
       <c r="E20">
@@ -2674,11 +2748,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>576</v>
       </c>
       <c r="E21">
@@ -2688,7 +2762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>15</v>
       </c>
@@ -2702,7 +2776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>14</v>
       </c>
@@ -2720,7 +2794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>10</v>
       </c>
@@ -2734,7 +2808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>10</v>
       </c>
@@ -2748,7 +2822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>8</v>
       </c>
@@ -2762,7 +2836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>8</v>
       </c>
@@ -2776,7 +2850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>8</v>
       </c>
@@ -2790,7 +2864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>8</v>
       </c>
@@ -2804,7 +2878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>7</v>
       </c>
@@ -2818,7 +2892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>7</v>
       </c>
@@ -2832,7 +2906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>5</v>
       </c>
@@ -2846,7 +2920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>5</v>
       </c>
@@ -2860,7 +2934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>5</v>
       </c>
@@ -2874,7 +2948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>5</v>
       </c>
@@ -2888,7 +2962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2902,7 +2976,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2916,7 +2990,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2930,7 +3004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2944,7 +3018,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2958,7 +3032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2972,7 +3046,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>4</v>
       </c>
@@ -2986,7 +3060,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>4</v>
       </c>
@@ -3000,7 +3074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>4</v>
       </c>
@@ -3014,7 +3088,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3028,7 +3102,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3042,7 +3116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3056,7 +3130,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3070,7 +3144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3084,7 +3158,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3098,7 +3172,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3112,7 +3186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3126,7 +3200,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3140,7 +3214,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3154,7 +3228,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3168,7 +3242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3182,7 +3256,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>3</v>
       </c>
@@ -3196,7 +3270,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>2</v>
       </c>
@@ -3210,7 +3284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3224,7 +3298,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3238,7 +3312,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3252,7 +3326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>2</v>
       </c>
@@ -3266,7 +3340,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>2</v>
       </c>
@@ -3280,7 +3354,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>2</v>
       </c>
@@ -3294,7 +3368,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>2</v>
       </c>
@@ -3308,7 +3382,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3322,7 +3396,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>1</v>
       </c>
@@ -3336,7 +3410,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3350,7 +3424,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>1</v>
       </c>
@@ -3364,7 +3438,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3378,7 +3452,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3392,7 +3466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>1</v>
       </c>
@@ -3406,7 +3480,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>1</v>
       </c>
@@ -3420,7 +3494,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3434,7 +3508,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3448,7 +3522,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3462,7 +3536,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3476,7 +3550,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3490,7 +3564,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3504,7 +3578,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3518,7 +3592,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3532,7 +3606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3546,7 +3620,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3560,7 +3634,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3574,7 +3648,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3588,7 +3662,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3602,7 +3676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3616,7 +3690,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3630,7 +3704,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3644,7 +3718,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3658,7 +3732,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3672,7 +3746,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3686,7 +3760,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3700,7 +3774,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3714,7 +3788,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3728,7 +3802,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3742,7 +3816,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3756,7 +3830,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3770,7 +3844,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3784,7 +3858,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3798,7 +3872,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3812,7 +3886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3826,7 +3900,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3840,7 +3914,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3854,7 +3928,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3868,7 +3942,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3882,7 +3956,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3896,7 +3970,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108">
         <f>SUM(A1:A107)</f>
         <v>3830</v>
@@ -3908,7 +3982,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="E109">
         <v>4</v>
       </c>
@@ -3916,7 +3990,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="E110">
         <v>4</v>
       </c>
@@ -3924,7 +3998,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="E111">
         <v>4</v>
       </c>
@@ -3932,7 +4006,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="E112">
         <v>4</v>
       </c>
@@ -3940,7 +4014,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:6">
       <c r="E113">
         <v>4</v>
       </c>
@@ -3948,7 +4022,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:6">
       <c r="E114">
         <v>4</v>
       </c>
@@ -3956,7 +4030,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:6">
       <c r="E115">
         <v>4</v>
       </c>
@@ -3964,7 +4038,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:6">
       <c r="E116">
         <v>4</v>
       </c>
@@ -3972,7 +4046,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:6">
       <c r="E117">
         <v>4</v>
       </c>
@@ -3980,7 +4054,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:6">
       <c r="E118">
         <v>4</v>
       </c>
@@ -3988,7 +4062,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:6">
       <c r="E119">
         <v>4</v>
       </c>
@@ -3996,7 +4070,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:6">
       <c r="E120">
         <v>4</v>
       </c>
@@ -4004,7 +4078,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:6">
       <c r="E121">
         <v>4</v>
       </c>
@@ -4012,7 +4086,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:6">
       <c r="E122">
         <v>4</v>
       </c>
@@ -4020,7 +4094,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:6">
       <c r="E123">
         <v>4</v>
       </c>
@@ -4028,7 +4102,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:6">
       <c r="E124">
         <v>4</v>
       </c>
@@ -4036,7 +4110,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:6">
       <c r="E125">
         <v>4</v>
       </c>
@@ -4044,7 +4118,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:6">
       <c r="E126">
         <v>4</v>
       </c>
@@ -4052,7 +4126,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:6">
       <c r="E127">
         <v>4</v>
       </c>
@@ -4060,7 +4134,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:6">
       <c r="E128">
         <v>4</v>
       </c>
@@ -4068,7 +4142,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:6">
       <c r="E129">
         <v>4</v>
       </c>
@@ -4076,7 +4150,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:6">
       <c r="E130">
         <v>4</v>
       </c>
@@ -4084,7 +4158,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:6">
       <c r="E131">
         <v>4</v>
       </c>
@@ -4092,7 +4166,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:6">
       <c r="E132">
         <v>4</v>
       </c>
@@ -4100,7 +4174,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:6">
       <c r="E133">
         <v>4</v>
       </c>
@@ -4108,7 +4182,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:6">
       <c r="E134">
         <v>4</v>
       </c>
@@ -4116,7 +4190,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:6">
       <c r="E135">
         <v>3</v>
       </c>
@@ -4124,7 +4198,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:6">
       <c r="E136">
         <v>3</v>
       </c>
@@ -4132,7 +4206,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:6">
       <c r="E137">
         <v>3</v>
       </c>
@@ -4140,7 +4214,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:6">
       <c r="E138">
         <v>3</v>
       </c>
@@ -4148,7 +4222,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:6">
       <c r="E139">
         <v>3</v>
       </c>
@@ -4156,7 +4230,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:6">
       <c r="E140">
         <v>3</v>
       </c>
@@ -4164,7 +4238,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:6">
       <c r="E141">
         <v>3</v>
       </c>
@@ -4172,7 +4246,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:6">
       <c r="E142">
         <v>3</v>
       </c>
@@ -4180,7 +4254,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:6">
       <c r="E143">
         <v>3</v>
       </c>
@@ -4188,7 +4262,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:6">
       <c r="E144">
         <v>3</v>
       </c>
@@ -4196,7 +4270,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:6">
       <c r="E145">
         <v>3</v>
       </c>
@@ -4204,7 +4278,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:6">
       <c r="E146">
         <v>3</v>
       </c>
@@ -4212,7 +4286,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:6">
       <c r="E147">
         <v>3</v>
       </c>
@@ -4220,7 +4294,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:6">
       <c r="E148">
         <v>3</v>
       </c>
@@ -4228,7 +4302,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:6">
       <c r="E149">
         <v>3</v>
       </c>
@@ -4236,7 +4310,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:6">
       <c r="E150">
         <v>3</v>
       </c>
@@ -4244,7 +4318,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:6">
       <c r="E151">
         <v>3</v>
       </c>
@@ -4252,7 +4326,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:6">
       <c r="E152">
         <v>3</v>
       </c>
@@ -4260,7 +4334,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:6">
       <c r="E153">
         <v>3</v>
       </c>
@@ -4268,7 +4342,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:6">
       <c r="E154">
         <v>3</v>
       </c>
@@ -4276,7 +4350,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:6">
       <c r="E155">
         <v>3</v>
       </c>
@@ -4284,7 +4358,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:6">
       <c r="E156">
         <v>3</v>
       </c>
@@ -4292,7 +4366,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:6">
       <c r="E157">
         <v>3</v>
       </c>
@@ -4300,7 +4374,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:6">
       <c r="E158">
         <v>3</v>
       </c>
@@ -4308,7 +4382,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:6">
       <c r="E159">
         <v>3</v>
       </c>
@@ -4316,7 +4390,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:6">
       <c r="E160">
         <v>3</v>
       </c>
@@ -4324,7 +4398,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:6">
       <c r="E161">
         <v>3</v>
       </c>
@@ -4332,7 +4406,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:6">
       <c r="E162">
         <v>3</v>
       </c>
@@ -4340,7 +4414,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:6">
       <c r="E163">
         <v>3</v>
       </c>
@@ -4348,7 +4422,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:6">
       <c r="E164">
         <v>3</v>
       </c>
@@ -4356,7 +4430,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:6">
       <c r="E165">
         <v>3</v>
       </c>
@@ -4364,7 +4438,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:6">
       <c r="E166">
         <v>3</v>
       </c>
@@ -4372,7 +4446,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:6">
       <c r="E167">
         <v>3</v>
       </c>
@@ -4380,7 +4454,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:6">
       <c r="E168">
         <v>3</v>
       </c>
@@ -4388,7 +4462,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:6">
       <c r="E169">
         <v>3</v>
       </c>
@@ -4396,7 +4470,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:6">
       <c r="E170">
         <v>3</v>
       </c>
@@ -4404,7 +4478,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:6">
       <c r="E171">
         <v>3</v>
       </c>
@@ -4412,7 +4486,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:6">
       <c r="E172">
         <v>3</v>
       </c>
@@ -4420,7 +4494,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:6">
       <c r="E173">
         <v>3</v>
       </c>
@@ -4428,7 +4502,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:6">
       <c r="E174">
         <v>3</v>
       </c>
@@ -4436,7 +4510,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:6">
       <c r="E175">
         <v>3</v>
       </c>
@@ -4444,7 +4518,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:6">
       <c r="E176">
         <v>3</v>
       </c>
@@ -4452,7 +4526,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:6">
       <c r="E177">
         <v>3</v>
       </c>
@@ -4460,7 +4534,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:6">
       <c r="E178">
         <v>3</v>
       </c>
@@ -4468,7 +4542,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:6">
       <c r="E179">
         <v>3</v>
       </c>
@@ -4476,7 +4550,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:6">
       <c r="E180">
         <v>3</v>
       </c>
@@ -4484,7 +4558,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:6">
       <c r="E181">
         <v>3</v>
       </c>
@@ -4492,7 +4566,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:6">
       <c r="E182">
         <v>3</v>
       </c>
@@ -4500,7 +4574,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:6">
       <c r="E183">
         <v>3</v>
       </c>
@@ -4508,7 +4582,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:6">
       <c r="E184">
         <v>3</v>
       </c>
@@ -4516,7 +4590,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:6">
       <c r="E185">
         <v>3</v>
       </c>
@@ -4524,7 +4598,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:6">
       <c r="E186">
         <v>2</v>
       </c>
@@ -4532,7 +4606,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:6">
       <c r="E187">
         <v>2</v>
       </c>
@@ -4540,7 +4614,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:6">
       <c r="E188">
         <v>2</v>
       </c>
@@ -4548,7 +4622,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:6">
       <c r="E189">
         <v>2</v>
       </c>
@@ -4556,7 +4630,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:6">
       <c r="E190">
         <v>2</v>
       </c>
@@ -4564,7 +4638,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:6">
       <c r="E191">
         <v>2</v>
       </c>
@@ -4572,7 +4646,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:6">
       <c r="E192">
         <v>2</v>
       </c>
@@ -4580,7 +4654,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:6">
       <c r="E193">
         <v>2</v>
       </c>
@@ -4588,7 +4662,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:6">
       <c r="E194">
         <v>2</v>
       </c>
@@ -4596,7 +4670,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:6">
       <c r="E195">
         <v>2</v>
       </c>
@@ -4604,7 +4678,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:6">
       <c r="E196">
         <v>2</v>
       </c>
@@ -4612,7 +4686,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:6">
       <c r="E197">
         <v>2</v>
       </c>
@@ -4620,7 +4694,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:6">
       <c r="E198">
         <v>2</v>
       </c>
@@ -4628,7 +4702,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:6">
       <c r="E199">
         <v>2</v>
       </c>
@@ -4636,7 +4710,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:6">
       <c r="E200">
         <v>2</v>
       </c>
@@ -4644,7 +4718,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:6">
       <c r="E201">
         <v>2</v>
       </c>
@@ -4652,7 +4726,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:6">
       <c r="E202">
         <v>2</v>
       </c>
@@ -4660,7 +4734,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:6">
       <c r="E203">
         <v>2</v>
       </c>
@@ -4668,7 +4742,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:6">
       <c r="E204">
         <v>2</v>
       </c>
@@ -4676,7 +4750,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:6">
       <c r="E205">
         <v>2</v>
       </c>
@@ -4684,7 +4758,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:6">
       <c r="E206">
         <v>2</v>
       </c>
@@ -4692,7 +4766,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:6">
       <c r="E207">
         <v>2</v>
       </c>
@@ -4700,7 +4774,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:6">
       <c r="E208">
         <v>2</v>
       </c>
@@ -4708,7 +4782,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:6">
       <c r="E209">
         <v>2</v>
       </c>
@@ -4716,7 +4790,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:6">
       <c r="E210">
         <v>2</v>
       </c>
@@ -4724,7 +4798,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:6">
       <c r="E211">
         <v>2</v>
       </c>
@@ -4732,7 +4806,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:6">
       <c r="E212">
         <v>2</v>
       </c>
@@ -4740,7 +4814,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:6">
       <c r="E213">
         <v>2</v>
       </c>
@@ -4748,7 +4822,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:6">
       <c r="E214">
         <v>2</v>
       </c>
@@ -4756,7 +4830,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:6">
       <c r="E215">
         <v>2</v>
       </c>
@@ -4764,7 +4838,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:6">
       <c r="E216">
         <v>2</v>
       </c>
@@ -4772,7 +4846,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:6">
       <c r="E217">
         <v>2</v>
       </c>
@@ -4780,7 +4854,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:6">
       <c r="E218">
         <v>2</v>
       </c>
@@ -4788,7 +4862,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:6">
       <c r="E219">
         <v>2</v>
       </c>
@@ -4796,7 +4870,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:6">
       <c r="E220">
         <v>2</v>
       </c>
@@ -4804,7 +4878,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:6">
       <c r="E221">
         <v>2</v>
       </c>
@@ -4812,7 +4886,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:6">
       <c r="E222">
         <v>2</v>
       </c>
@@ -4820,7 +4894,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:6">
       <c r="E223">
         <v>2</v>
       </c>
@@ -4828,7 +4902,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:6">
       <c r="E224">
         <v>2</v>
       </c>
@@ -4836,7 +4910,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:6">
       <c r="E225">
         <v>2</v>
       </c>
@@ -4844,7 +4918,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:6">
       <c r="E226">
         <v>2</v>
       </c>
@@ -4852,7 +4926,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:6">
       <c r="E227">
         <v>2</v>
       </c>
@@ -4860,7 +4934,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:6">
       <c r="E228">
         <v>2</v>
       </c>
@@ -4868,7 +4942,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:6">
       <c r="E229">
         <v>2</v>
       </c>
@@ -4876,7 +4950,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:6">
       <c r="E230">
         <v>2</v>
       </c>
@@ -4884,7 +4958,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:6">
       <c r="E231">
         <v>2</v>
       </c>
@@ -4892,7 +4966,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:6">
       <c r="E232">
         <v>2</v>
       </c>
@@ -4900,7 +4974,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:6">
       <c r="E233">
         <v>2</v>
       </c>
@@ -4908,7 +4982,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:6">
       <c r="E234">
         <v>2</v>
       </c>
@@ -4916,7 +4990,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:6">
       <c r="E235">
         <v>2</v>
       </c>
@@ -4924,7 +4998,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:6">
       <c r="E236">
         <v>2</v>
       </c>
@@ -4932,7 +5006,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:6">
       <c r="E237">
         <v>2</v>
       </c>
@@ -4940,7 +5014,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:6">
       <c r="E238">
         <v>2</v>
       </c>
@@ -4948,7 +5022,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:6">
       <c r="E239">
         <v>2</v>
       </c>
@@ -4956,7 +5030,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:6">
       <c r="E240">
         <v>2</v>
       </c>
@@ -4964,7 +5038,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:6">
       <c r="E241">
         <v>2</v>
       </c>
@@ -4972,7 +5046,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:6">
       <c r="E242">
         <v>2</v>
       </c>
@@ -4980,7 +5054,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:6">
       <c r="E243">
         <v>2</v>
       </c>
@@ -4988,7 +5062,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:6">
       <c r="E244">
         <v>2</v>
       </c>
@@ -4996,7 +5070,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:6">
       <c r="E245">
         <v>2</v>
       </c>
@@ -5004,7 +5078,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:6">
       <c r="E246">
         <v>2</v>
       </c>
@@ -5012,7 +5086,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:6">
       <c r="E247">
         <v>2</v>
       </c>
@@ -5020,7 +5094,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:6">
       <c r="E248">
         <v>2</v>
       </c>
@@ -5028,7 +5102,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="5:6">
       <c r="E249">
         <v>2</v>
       </c>
@@ -5036,7 +5110,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="5:6">
       <c r="E250">
         <v>2</v>
       </c>
@@ -5044,7 +5118,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="5:6">
       <c r="E251">
         <v>2</v>
       </c>
@@ -5052,7 +5126,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="5:6">
       <c r="E252">
         <v>2</v>
       </c>
@@ -5060,7 +5134,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="5:6">
       <c r="E253">
         <v>2</v>
       </c>
@@ -5068,7 +5142,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="5:6">
       <c r="E254">
         <v>2</v>
       </c>
@@ -5076,7 +5150,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="5:6">
       <c r="E255">
         <v>2</v>
       </c>
@@ -5084,7 +5158,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="5:6">
       <c r="E256">
         <v>2</v>
       </c>
@@ -5092,7 +5166,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="5:6">
       <c r="E257">
         <v>2</v>
       </c>
@@ -5100,7 +5174,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="5:6">
       <c r="E258">
         <v>2</v>
       </c>
@@ -5108,7 +5182,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="5:6">
       <c r="E259">
         <v>2</v>
       </c>
@@ -5116,7 +5190,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="5:6">
       <c r="E260">
         <v>2</v>
       </c>
@@ -5124,7 +5198,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="5:6">
       <c r="E261">
         <v>2</v>
       </c>
@@ -5132,7 +5206,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="5:6">
       <c r="E262">
         <v>2</v>
       </c>
@@ -5140,7 +5214,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="5:6">
       <c r="E263">
         <v>2</v>
       </c>
@@ -5148,7 +5222,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="5:6">
       <c r="E264">
         <v>2</v>
       </c>
@@ -5156,7 +5230,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="5:6">
       <c r="E265">
         <v>2</v>
       </c>
@@ -5164,7 +5238,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="5:6">
       <c r="E266">
         <v>2</v>
       </c>
@@ -5172,7 +5246,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="5:6">
       <c r="E267">
         <v>2</v>
       </c>
@@ -5180,7 +5254,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="5:6">
       <c r="E268">
         <v>2</v>
       </c>
@@ -5188,7 +5262,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="5:6">
       <c r="E269">
         <v>1</v>
       </c>
@@ -5196,7 +5270,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="5:6">
       <c r="E270">
         <v>1</v>
       </c>
@@ -5204,7 +5278,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="5:6">
       <c r="E271">
         <v>1</v>
       </c>
@@ -5212,7 +5286,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="5:6">
       <c r="E272">
         <v>1</v>
       </c>
@@ -5220,7 +5294,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="5:6">
       <c r="E273">
         <v>1</v>
       </c>
@@ -5228,7 +5302,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="5:6">
       <c r="E274">
         <v>1</v>
       </c>
@@ -5236,7 +5310,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="5:6">
       <c r="E275">
         <v>1</v>
       </c>
@@ -5244,7 +5318,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="5:6">
       <c r="E276">
         <v>1</v>
       </c>
@@ -5252,7 +5326,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="5:6">
       <c r="E277">
         <v>1</v>
       </c>
@@ -5260,7 +5334,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="5:6">
       <c r="E278">
         <v>1</v>
       </c>
@@ -5268,7 +5342,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="5:6">
       <c r="E279">
         <v>1</v>
       </c>
@@ -5276,7 +5350,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="5:6">
       <c r="E280">
         <v>1</v>
       </c>
@@ -5284,7 +5358,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="5:6">
       <c r="E281">
         <v>1</v>
       </c>
@@ -5292,7 +5366,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="5:6">
       <c r="E282">
         <v>1</v>
       </c>
@@ -5300,7 +5374,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="5:6">
       <c r="E283">
         <v>1</v>
       </c>
@@ -5308,7 +5382,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="5:6">
       <c r="E284">
         <v>1</v>
       </c>
@@ -5316,7 +5390,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="5:6">
       <c r="E285">
         <v>1</v>
       </c>
@@ -5324,7 +5398,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="5:6">
       <c r="E286">
         <v>1</v>
       </c>
@@ -5332,7 +5406,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="5:6">
       <c r="E287">
         <v>1</v>
       </c>
@@ -5340,7 +5414,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="5:6">
       <c r="E288">
         <v>1</v>
       </c>
@@ -5348,7 +5422,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="5:6">
       <c r="E289">
         <v>1</v>
       </c>
@@ -5356,7 +5430,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="5:6">
       <c r="E290">
         <v>1</v>
       </c>
@@ -5364,7 +5438,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="5:6">
       <c r="E291">
         <v>1</v>
       </c>
@@ -5372,7 +5446,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="5:6">
       <c r="E292">
         <v>1</v>
       </c>
@@ -5380,7 +5454,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="5:6">
       <c r="E293">
         <v>1</v>
       </c>
@@ -5388,7 +5462,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="5:6">
       <c r="E294">
         <v>1</v>
       </c>
@@ -5396,7 +5470,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="5:6">
       <c r="E295">
         <v>1</v>
       </c>
@@ -5404,7 +5478,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="5:6">
       <c r="E296">
         <v>1</v>
       </c>
@@ -5412,7 +5486,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="5:6">
       <c r="E297">
         <v>1</v>
       </c>
@@ -5420,7 +5494,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="5:6">
       <c r="E298">
         <v>1</v>
       </c>
@@ -5428,7 +5502,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="5:6">
       <c r="E299">
         <v>1</v>
       </c>
@@ -5436,7 +5510,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="5:6">
       <c r="E300">
         <v>1</v>
       </c>
@@ -5444,7 +5518,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="5:6">
       <c r="E301">
         <v>1</v>
       </c>
@@ -5452,7 +5526,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="5:6">
       <c r="E302">
         <v>1</v>
       </c>
@@ -5460,7 +5534,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="5:6">
       <c r="E303">
         <v>1</v>
       </c>
@@ -5468,7 +5542,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="5:6">
       <c r="E304">
         <v>1</v>
       </c>
@@ -5476,7 +5550,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="5:6">
       <c r="E305">
         <v>1</v>
       </c>
@@ -5484,7 +5558,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="5:6">
       <c r="E306">
         <v>1</v>
       </c>
@@ -5492,7 +5566,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="5:6">
       <c r="E307">
         <v>1</v>
       </c>
@@ -5500,7 +5574,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="5:6">
       <c r="E308">
         <v>1</v>
       </c>
@@ -5508,7 +5582,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="5:6">
       <c r="E309">
         <v>1</v>
       </c>
@@ -5516,7 +5590,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="5:6">
       <c r="E310">
         <v>1</v>
       </c>
@@ -5524,7 +5598,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="5:6">
       <c r="E311">
         <v>1</v>
       </c>
@@ -5532,7 +5606,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="5:6">
       <c r="E312">
         <v>1</v>
       </c>
@@ -5540,7 +5614,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="5:6">
       <c r="E313">
         <v>1</v>
       </c>
@@ -5548,7 +5622,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="5:6">
       <c r="E314">
         <v>1</v>
       </c>
@@ -5556,7 +5630,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="5:6">
       <c r="E315">
         <v>1</v>
       </c>
@@ -5564,7 +5638,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="5:6">
       <c r="E316">
         <v>1</v>
       </c>
@@ -5572,7 +5646,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="5:6">
       <c r="E317">
         <v>1</v>
       </c>
@@ -5580,7 +5654,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="5:6">
       <c r="E318">
         <v>1</v>
       </c>
@@ -5588,7 +5662,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="5:6">
       <c r="E319">
         <v>1</v>
       </c>
@@ -5596,7 +5670,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="5:6">
       <c r="E320">
         <v>1</v>
       </c>
@@ -5604,7 +5678,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="5:6">
       <c r="E321">
         <v>1</v>
       </c>
@@ -5612,7 +5686,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="5:6">
       <c r="E322">
         <v>1</v>
       </c>
@@ -5620,7 +5694,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="5:6">
       <c r="E323">
         <v>1</v>
       </c>
@@ -5628,7 +5702,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="5:6">
       <c r="E324">
         <v>1</v>
       </c>
@@ -5636,7 +5710,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="5:6">
       <c r="E325">
         <v>1</v>
       </c>
@@ -5644,7 +5718,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="5:6">
       <c r="E326">
         <v>1</v>
       </c>
@@ -5652,7 +5726,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="5:6">
       <c r="E327">
         <v>1</v>
       </c>
@@ -5660,7 +5734,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="5:6">
       <c r="E328">
         <v>1</v>
       </c>
@@ -5668,7 +5742,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="5:6">
       <c r="E329">
         <v>1</v>
       </c>
@@ -5676,7 +5750,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="5:6">
       <c r="E330">
         <v>1</v>
       </c>
@@ -5684,7 +5758,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="5:6">
       <c r="E331">
         <v>1</v>
       </c>
@@ -5692,7 +5766,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="5:6">
       <c r="E332">
         <v>1</v>
       </c>
@@ -5700,7 +5774,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="5:6">
       <c r="E333">
         <v>1</v>
       </c>
@@ -5708,7 +5782,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="5:6">
       <c r="E334">
         <v>1</v>
       </c>
@@ -5716,7 +5790,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="5:6">
       <c r="E335">
         <v>1</v>
       </c>
@@ -5724,7 +5798,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="5:6">
       <c r="E336">
         <v>1</v>
       </c>
@@ -5732,7 +5806,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="5:6">
       <c r="E337">
         <v>1</v>
       </c>
@@ -5740,7 +5814,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="5:6">
       <c r="E338">
         <v>1</v>
       </c>
@@ -5748,7 +5822,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="5:6">
       <c r="E339">
         <v>1</v>
       </c>
@@ -5756,7 +5830,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="5:6">
       <c r="E340">
         <v>1</v>
       </c>
@@ -5764,7 +5838,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="5:6">
       <c r="E341">
         <v>1</v>
       </c>
@@ -5772,7 +5846,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="5:6">
       <c r="E342">
         <v>1</v>
       </c>
@@ -5780,7 +5854,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="5:6">
       <c r="E343">
         <v>1</v>
       </c>
@@ -5788,7 +5862,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="5:6">
       <c r="E344">
         <v>1</v>
       </c>
@@ -5796,7 +5870,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="5:6">
       <c r="E345">
         <v>1</v>
       </c>
@@ -5804,7 +5878,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="5:6">
       <c r="E346">
         <v>1</v>
       </c>
@@ -5812,7 +5886,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="5:6">
       <c r="E347">
         <v>1</v>
       </c>
@@ -5820,7 +5894,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="5:6">
       <c r="E348">
         <v>1</v>
       </c>
@@ -5828,7 +5902,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="5:6">
       <c r="E349">
         <v>1</v>
       </c>
@@ -5836,7 +5910,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="5:6">
       <c r="E350">
         <v>1</v>
       </c>
@@ -5844,7 +5918,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="5:6">
       <c r="E351">
         <v>1</v>
       </c>
@@ -5852,7 +5926,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="5:6">
       <c r="E352">
         <v>1</v>
       </c>
@@ -5860,7 +5934,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="5:6">
       <c r="E353">
         <v>1</v>
       </c>
@@ -5868,7 +5942,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="5:6">
       <c r="E354">
         <v>1</v>
       </c>
@@ -5876,7 +5950,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="5:6">
       <c r="E355">
         <v>1</v>
       </c>
@@ -5884,7 +5958,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="5:6">
       <c r="E356">
         <v>1</v>
       </c>
@@ -5892,7 +5966,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="5:6">
       <c r="E357">
         <v>1</v>
       </c>
@@ -5900,7 +5974,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="5:6">
       <c r="E358">
         <v>1</v>
       </c>
@@ -5908,7 +5982,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="5:6">
       <c r="E359">
         <v>1</v>
       </c>
@@ -5916,7 +5990,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="5:6">
       <c r="E360">
         <v>1</v>
       </c>
@@ -5924,7 +5998,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="5:6">
       <c r="E361">
         <v>1</v>
       </c>
@@ -5932,7 +6006,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="5:6">
       <c r="E362">
         <v>1</v>
       </c>
@@ -5940,7 +6014,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="5:6">
       <c r="E363">
         <v>1</v>
       </c>
@@ -5948,7 +6022,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="5:6">
       <c r="E364">
         <v>1</v>
       </c>
@@ -5956,7 +6030,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="5:6">
       <c r="E365">
         <v>1</v>
       </c>
@@ -5964,7 +6038,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="5:6">
       <c r="E366">
         <v>1</v>
       </c>
@@ -5972,7 +6046,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="5:6">
       <c r="E367">
         <v>1</v>
       </c>
@@ -5980,7 +6054,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="5:6">
       <c r="E368">
         <v>1</v>
       </c>
@@ -5988,7 +6062,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="5:6">
       <c r="E369">
         <v>1</v>
       </c>
@@ -5996,7 +6070,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="5:6">
       <c r="E370">
         <v>1</v>
       </c>
@@ -6004,7 +6078,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="5:6">
       <c r="E371">
         <v>1</v>
       </c>
@@ -6012,7 +6086,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="5:6">
       <c r="E372">
         <v>1</v>
       </c>
@@ -6020,7 +6094,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="5:6">
       <c r="E373">
         <v>1</v>
       </c>
@@ -6028,7 +6102,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="5:6">
       <c r="E374">
         <v>1</v>
       </c>
@@ -6036,7 +6110,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="5:6">
       <c r="E375">
         <v>1</v>
       </c>
@@ -6044,7 +6118,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="5:6">
       <c r="E376">
         <v>1</v>
       </c>
@@ -6052,7 +6126,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="5:6">
       <c r="E377">
         <v>1</v>
       </c>
@@ -6060,7 +6134,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="5:6">
       <c r="E378">
         <v>1</v>
       </c>
@@ -6068,7 +6142,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="5:6">
       <c r="E379">
         <v>1</v>
       </c>
@@ -6076,7 +6150,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="5:6">
       <c r="E380">
         <v>1</v>
       </c>
@@ -6084,7 +6158,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="5:6">
       <c r="E381">
         <v>1</v>
       </c>
@@ -6092,7 +6166,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="5:6">
       <c r="E382">
         <v>1</v>
       </c>
@@ -6100,7 +6174,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="5:6">
       <c r="E383">
         <v>1</v>
       </c>
@@ -6108,7 +6182,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="5:6">
       <c r="E384">
         <v>1</v>
       </c>
@@ -6116,7 +6190,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="5:6">
       <c r="E385">
         <v>1</v>
       </c>
@@ -6124,7 +6198,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="5:6">
       <c r="E386">
         <v>1</v>
       </c>
@@ -6132,7 +6206,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="5:6">
       <c r="E387">
         <v>1</v>
       </c>
@@ -6140,7 +6214,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="5:6">
       <c r="E388">
         <v>1</v>
       </c>
@@ -6148,7 +6222,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="5:6">
       <c r="E389">
         <v>1</v>
       </c>
@@ -6156,7 +6230,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="5:6">
       <c r="E390">
         <v>1</v>
       </c>
@@ -6164,7 +6238,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="5:6">
       <c r="E391">
         <v>1</v>
       </c>
@@ -6172,7 +6246,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="5:6">
       <c r="E392">
         <v>1</v>
       </c>
@@ -6180,7 +6254,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="5:6">
       <c r="E393">
         <v>1</v>
       </c>
@@ -6188,7 +6262,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="5:6">
       <c r="E394">
         <v>1</v>
       </c>
@@ -6196,7 +6270,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="5:6">
       <c r="E395">
         <v>1</v>
       </c>
@@ -6204,7 +6278,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="5:6">
       <c r="E396">
         <v>1</v>
       </c>
@@ -6212,7 +6286,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="5:6">
       <c r="E397">
         <v>1</v>
       </c>
@@ -6220,7 +6294,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="5:6">
       <c r="E398">
         <v>1</v>
       </c>
@@ -6228,7 +6302,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="5:6">
       <c r="E399">
         <v>1</v>
       </c>
@@ -6236,7 +6310,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="5:6">
       <c r="E400">
         <v>1</v>
       </c>
@@ -6244,7 +6318,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="5:6">
       <c r="E401">
         <v>1</v>
       </c>
@@ -6252,7 +6326,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="5:6">
       <c r="E402">
         <v>1</v>
       </c>
@@ -6260,7 +6334,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="5:6">
       <c r="E403">
         <v>1</v>
       </c>
@@ -6268,7 +6342,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="5:6">
       <c r="E404">
         <v>1</v>
       </c>
@@ -6276,7 +6350,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="5:6">
       <c r="E405">
         <v>1</v>
       </c>
@@ -6284,7 +6358,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="5:6">
       <c r="E406">
         <v>1</v>
       </c>
@@ -6292,7 +6366,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="5:6">
       <c r="E407">
         <v>1</v>
       </c>
@@ -6300,7 +6374,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="5:6">
       <c r="E408">
         <v>1</v>
       </c>
@@ -6308,7 +6382,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="5:6">
       <c r="E409">
         <v>1</v>
       </c>
@@ -6316,7 +6390,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="5:6">
       <c r="E410">
         <v>1</v>
       </c>
@@ -6324,7 +6398,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="5:6">
       <c r="E411">
         <v>1</v>
       </c>
@@ -6332,7 +6406,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="5:6">
       <c r="E412">
         <v>1</v>
       </c>
@@ -6340,7 +6414,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="5:6">
       <c r="E413">
         <v>1</v>
       </c>
@@ -6348,7 +6422,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="5:6">
       <c r="E414">
         <v>1</v>
       </c>
@@ -6356,7 +6430,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="5:6">
       <c r="E415">
         <v>1</v>
       </c>
@@ -6364,7 +6438,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="5:6">
       <c r="E416">
         <v>1</v>
       </c>
@@ -6372,7 +6446,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="5:6">
       <c r="E417">
         <v>1</v>
       </c>
@@ -6380,7 +6454,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="5:6">
       <c r="E418">
         <v>1</v>
       </c>
@@ -6388,7 +6462,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="5:6">
       <c r="E419">
         <v>1</v>
       </c>
@@ -6396,7 +6470,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="5:6">
       <c r="E420">
         <v>1</v>
       </c>
@@ -6404,7 +6478,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="5:6">
       <c r="E421">
         <v>1</v>
       </c>
@@ -6412,7 +6486,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="5:6">
       <c r="E422">
         <v>1</v>
       </c>
@@ -6420,7 +6494,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="5:6">
       <c r="E423">
         <v>1</v>
       </c>
@@ -6428,7 +6502,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="5:6">
       <c r="E424">
         <v>1</v>
       </c>
@@ -6436,7 +6510,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="5:6">
       <c r="E425">
         <v>1</v>
       </c>
@@ -6444,7 +6518,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="5:6">
       <c r="E426">
         <v>1</v>
       </c>
@@ -6452,7 +6526,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="5:6">
       <c r="E427">
         <v>1</v>
       </c>
@@ -6460,7 +6534,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="5:6">
       <c r="E428">
         <v>1</v>
       </c>
@@ -6468,7 +6542,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="5:6">
       <c r="E429">
         <v>1</v>
       </c>
@@ -6476,7 +6550,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="5:6">
       <c r="E430">
         <v>1</v>
       </c>
@@ -6484,7 +6558,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="5:6">
       <c r="E431">
         <v>1</v>
       </c>
@@ -6492,7 +6566,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="5:6">
       <c r="E432">
         <v>1</v>
       </c>
@@ -6500,7 +6574,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="5:6">
       <c r="E433">
         <v>1</v>
       </c>
@@ -6508,7 +6582,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="5:6">
       <c r="E434">
         <v>1</v>
       </c>
@@ -6516,7 +6590,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="5:6">
       <c r="E435">
         <v>1</v>
       </c>
@@ -6524,7 +6598,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="5:6">
       <c r="E436">
         <v>1</v>
       </c>
@@ -6532,7 +6606,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="5:6">
       <c r="E437">
         <v>1</v>
       </c>
@@ -6540,7 +6614,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="5:6">
       <c r="E438">
         <v>1</v>
       </c>
@@ -6548,7 +6622,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="5:6">
       <c r="E439">
         <v>1</v>
       </c>
@@ -6556,7 +6630,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="5:6">
       <c r="E440">
         <v>1</v>
       </c>
@@ -6564,7 +6638,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="5:6">
       <c r="E441">
         <v>1</v>
       </c>
@@ -6572,7 +6646,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="5:6">
       <c r="E442">
         <v>1</v>
       </c>
@@ -6580,7 +6654,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="5:6">
       <c r="E443">
         <v>1</v>
       </c>
@@ -6588,7 +6662,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="5:6">
       <c r="E444">
         <v>1</v>
       </c>
@@ -6596,7 +6670,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="5:6">
       <c r="E445">
         <v>1</v>
       </c>
@@ -6604,7 +6678,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="5:6">
       <c r="E446">
         <v>1</v>
       </c>
@@ -6612,7 +6686,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="5:6">
       <c r="E447">
         <v>1</v>
       </c>
@@ -6620,7 +6694,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="5:6">
       <c r="E448">
         <v>1</v>
       </c>
@@ -6628,7 +6702,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="5:6">
       <c r="E449">
         <v>1</v>
       </c>
@@ -6636,7 +6710,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="5:6">
       <c r="E450">
         <v>1</v>
       </c>
@@ -6644,7 +6718,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="5:6">
       <c r="E451">
         <v>1</v>
       </c>
@@ -6652,7 +6726,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="5:6">
       <c r="E452">
         <v>1</v>
       </c>
@@ -6660,7 +6734,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="5:6">
       <c r="E453">
         <v>1</v>
       </c>
@@ -6668,7 +6742,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="5:6">
       <c r="E454">
         <v>1</v>
       </c>
@@ -6676,7 +6750,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="5:6">
       <c r="E455">
         <v>1</v>
       </c>
@@ -6684,7 +6758,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="5:6">
       <c r="E456">
         <v>1</v>
       </c>
@@ -6692,7 +6766,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="5:6">
       <c r="E457">
         <v>1</v>
       </c>
@@ -6700,7 +6774,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="5:6">
       <c r="E458">
         <v>1</v>
       </c>
@@ -6708,7 +6782,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="5:6">
       <c r="E459">
         <v>1</v>
       </c>
@@ -6716,7 +6790,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="5:6">
       <c r="E460">
         <v>1</v>
       </c>
@@ -6724,7 +6798,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="5:6">
       <c r="E461">
         <v>1</v>
       </c>
@@ -6732,7 +6806,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="5:6">
       <c r="E462">
         <v>1</v>
       </c>
@@ -6740,7 +6814,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="5:6">
       <c r="E463">
         <v>1</v>
       </c>
@@ -6748,7 +6822,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="5:6">
       <c r="E464">
         <v>1</v>
       </c>
@@ -6756,7 +6830,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="5:6">
       <c r="E465">
         <v>1</v>
       </c>
@@ -6764,7 +6838,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="5:6">
       <c r="E466">
         <v>1</v>
       </c>
@@ -6772,7 +6846,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="5:6">
       <c r="E467">
         <v>1</v>
       </c>
@@ -6780,7 +6854,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="5:6">
       <c r="E468">
         <v>1</v>
       </c>
@@ -6788,7 +6862,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="5:6">
       <c r="E469">
         <v>1</v>
       </c>
@@ -6796,7 +6870,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="5:6">
       <c r="E470">
         <v>1</v>
       </c>
@@ -6804,7 +6878,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="5:6">
       <c r="E471">
         <v>1</v>
       </c>
@@ -6812,7 +6886,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="5:6">
       <c r="E472">
         <v>1</v>
       </c>
@@ -6820,7 +6894,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="5:6">
       <c r="E473">
         <v>1</v>
       </c>
@@ -6828,7 +6902,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="5:6">
       <c r="E474">
         <v>1</v>
       </c>
@@ -6836,7 +6910,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="5:6">
       <c r="E475">
         <v>1</v>
       </c>
@@ -6844,7 +6918,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="5:6">
       <c r="E476">
         <v>1</v>
       </c>
@@ -6852,7 +6926,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="5:6">
       <c r="E477">
         <v>1</v>
       </c>
@@ -6860,7 +6934,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="5:6">
       <c r="E478">
         <v>1</v>
       </c>
@@ -6868,7 +6942,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="5:6">
       <c r="E479">
         <v>1</v>
       </c>
@@ -6876,7 +6950,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="5:6">
       <c r="E480">
         <v>1</v>
       </c>
@@ -6884,7 +6958,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="5:6">
       <c r="E481">
         <v>1</v>
       </c>
@@ -6892,7 +6966,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="5:6">
       <c r="E482">
         <v>1</v>
       </c>
@@ -6900,7 +6974,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="5:6">
       <c r="E483">
         <v>1</v>
       </c>
@@ -6908,7 +6982,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="5:6">
       <c r="E484">
         <v>1</v>
       </c>
@@ -6916,7 +6990,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="5:6">
       <c r="E485">
         <v>1</v>
       </c>
@@ -6924,7 +6998,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="5:6">
       <c r="E486">
         <v>1</v>
       </c>
@@ -6932,7 +7006,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="5:6">
       <c r="E487">
         <v>1</v>
       </c>
@@ -6940,7 +7014,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="5:6">
       <c r="E488">
         <v>1</v>
       </c>
@@ -6948,7 +7022,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="5:6">
       <c r="E489">
         <v>1</v>
       </c>
@@ -6956,7 +7030,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="5:6">
       <c r="E490">
         <v>1</v>
       </c>
@@ -6964,7 +7038,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="5:6">
       <c r="E491">
         <v>1</v>
       </c>
@@ -6972,7 +7046,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="5:6">
       <c r="E492">
         <v>1</v>
       </c>
@@ -6980,7 +7054,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="5:6">
       <c r="E493">
         <v>1</v>
       </c>
@@ -6988,7 +7062,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="5:6">
       <c r="E494">
         <v>1</v>
       </c>
@@ -6996,7 +7070,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="5:6">
       <c r="E495">
         <v>1</v>
       </c>
@@ -7004,7 +7078,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="5:6">
       <c r="E496">
         <v>1</v>
       </c>
@@ -7012,7 +7086,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="5:6">
       <c r="E497">
         <v>1</v>
       </c>
@@ -7020,7 +7094,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="5:6">
       <c r="E498">
         <v>1</v>
       </c>
@@ -7028,7 +7102,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="5:6">
       <c r="E499">
         <v>1</v>
       </c>
@@ -7036,7 +7110,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="5:6">
       <c r="E500">
         <v>1</v>
       </c>
@@ -7044,7 +7118,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="5:6">
       <c r="E501">
         <v>1</v>
       </c>
@@ -7052,7 +7126,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="5:6">
       <c r="E502">
         <v>1</v>
       </c>
@@ -7060,7 +7134,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="5:6">
       <c r="E503">
         <v>1</v>
       </c>
@@ -7068,7 +7142,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="5:6">
       <c r="E504">
         <v>1</v>
       </c>
@@ -7076,7 +7150,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="5:6">
       <c r="E505">
         <v>1</v>
       </c>
@@ -7084,7 +7158,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="5:6">
       <c r="E506">
         <v>1</v>
       </c>
@@ -7092,7 +7166,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="5:6">
       <c r="E507">
         <v>1</v>
       </c>
@@ -7100,7 +7174,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="5:6">
       <c r="E508">
         <v>1</v>
       </c>
@@ -7108,7 +7182,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="5:6">
       <c r="E509">
         <v>1</v>
       </c>
@@ -7116,7 +7190,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="5:6">
       <c r="E510">
         <v>1</v>
       </c>
@@ -7124,7 +7198,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="5:6">
       <c r="E511">
         <v>1</v>
       </c>
@@ -7132,7 +7206,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="5:6">
       <c r="E512">
         <v>1</v>
       </c>
@@ -7140,7 +7214,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="5:6">
       <c r="E513">
         <v>1</v>
       </c>
@@ -7148,7 +7222,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="5:6">
       <c r="E514">
         <v>1</v>
       </c>
@@ -7156,7 +7230,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="515" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="5:6">
       <c r="E515">
         <v>1</v>
       </c>
@@ -7164,7 +7238,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="516" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="5:6">
       <c r="E516">
         <v>1</v>
       </c>
@@ -7172,7 +7246,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="517" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="5:6">
       <c r="E517">
         <v>1</v>
       </c>
@@ -7180,7 +7254,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="5:6">
       <c r="E518">
         <v>1</v>
       </c>
@@ -7188,7 +7262,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="519" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="5:6">
       <c r="E519">
         <v>1</v>
       </c>
@@ -7196,7 +7270,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="520" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="5:6">
       <c r="E520">
         <v>1</v>
       </c>
@@ -7204,7 +7278,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="521" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="5:6">
       <c r="E521">
         <v>1</v>
       </c>
@@ -7212,7 +7286,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="522" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="5:6">
       <c r="E522">
         <v>1</v>
       </c>
@@ -7220,7 +7294,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="5:6">
       <c r="E523">
         <v>1</v>
       </c>
@@ -7228,7 +7302,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="524" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="5:6">
       <c r="E524">
         <v>1</v>
       </c>
@@ -7236,7 +7310,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="525" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="5:6">
       <c r="E525">
         <v>1</v>
       </c>
@@ -7244,7 +7318,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="526" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="5:6">
       <c r="E526">
         <v>1</v>
       </c>
@@ -7252,7 +7326,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="5:6">
       <c r="E527">
         <v>1</v>
       </c>
@@ -7260,7 +7334,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="5:6">
       <c r="E528">
         <v>1</v>
       </c>
@@ -7268,7 +7342,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="529" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="5:6">
       <c r="E529">
         <v>1</v>
       </c>
@@ -7276,7 +7350,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="5:6">
       <c r="E530">
         <v>1</v>
       </c>
@@ -7284,7 +7358,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="531" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="5:6">
       <c r="E531">
         <v>1</v>
       </c>
@@ -7292,7 +7366,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="532" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="5:6">
       <c r="E532">
         <v>1</v>
       </c>
@@ -7300,7 +7374,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="533" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="5:6">
       <c r="E533">
         <v>1</v>
       </c>
@@ -7308,7 +7382,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="5:6">
       <c r="E534">
         <v>1</v>
       </c>
@@ -7316,7 +7390,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="535" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="5:6">
       <c r="E535">
         <v>1</v>
       </c>
@@ -7324,7 +7398,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="5:6">
       <c r="E536">
         <v>1</v>
       </c>
@@ -7332,7 +7406,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="537" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="5:6">
       <c r="E537">
         <v>1</v>
       </c>
@@ -7340,7 +7414,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="538" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="5:6">
       <c r="E538">
         <v>1</v>
       </c>
@@ -7348,7 +7422,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="539" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="5:6">
       <c r="E539">
         <v>1</v>
       </c>
@@ -7356,7 +7430,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="540" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="5:6">
       <c r="E540">
         <v>1</v>
       </c>
@@ -7364,7 +7438,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="541" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="5:6">
       <c r="E541">
         <v>1</v>
       </c>
@@ -7372,7 +7446,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="542" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="5:6">
       <c r="E542">
         <v>1</v>
       </c>
@@ -7380,7 +7454,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="543" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="5:6">
       <c r="E543">
         <v>1</v>
       </c>
@@ -7388,7 +7462,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="544" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="5:6">
       <c r="E544">
         <v>1</v>
       </c>
@@ -7396,7 +7470,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="545" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="5:6">
       <c r="E545">
         <v>1</v>
       </c>
@@ -7404,7 +7478,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="546" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="5:6">
       <c r="E546">
         <v>1</v>
       </c>
@@ -7412,7 +7486,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="5:6">
       <c r="E547">
         <v>1</v>
       </c>
@@ -7420,7 +7494,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="548" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="5:6">
       <c r="E548">
         <v>1</v>
       </c>
@@ -7428,7 +7502,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="549" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="5:6">
       <c r="E549">
         <v>1</v>
       </c>
@@ -7436,7 +7510,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="550" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="5:6">
       <c r="E550">
         <v>1</v>
       </c>
@@ -7444,7 +7518,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="551" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="5:6">
       <c r="E551">
         <v>1</v>
       </c>
@@ -7452,7 +7526,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="552" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="5:6">
       <c r="E552">
         <v>1</v>
       </c>
@@ -7460,7 +7534,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="553" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="5:6">
       <c r="E553">
         <v>1</v>
       </c>
@@ -7468,7 +7542,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="554" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="5:6">
       <c r="E554">
         <v>1</v>
       </c>
@@ -7476,7 +7550,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="555" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="5:6">
       <c r="E555">
         <v>1</v>
       </c>
@@ -7484,7 +7558,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="556" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="5:6">
       <c r="E556">
         <v>1</v>
       </c>
@@ -7494,18 +7568,436 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>17328</v>
+      </c>
+      <c r="B1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2544</v>
+      </c>
+      <c r="B2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1330</v>
+      </c>
+      <c r="B3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1191</v>
+      </c>
+      <c r="B4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>813</v>
+      </c>
+      <c r="B5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>565</v>
+      </c>
+      <c r="B6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>444</v>
+      </c>
+      <c r="B7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>270</v>
+      </c>
+      <c r="B8" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>265</v>
+      </c>
+      <c r="B9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>233</v>
+      </c>
+      <c r="B10" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>219</v>
+      </c>
+      <c r="B11" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>172</v>
+      </c>
+      <c r="B13" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>19</v>
+      </c>
+      <c r="B50" t="s">
+        <v>678</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7515,8 +8007,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>